--- a/BPS_FH_Dataset/30/chords.xlsx
+++ b/BPS_FH_Dataset/30/chords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\30 x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\30 r\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="155">
   <si>
     <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ii6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,6 +639,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,16 +993,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="D138" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -1232,7 +1232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1301,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17.5</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20.5</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1">
         <v>7</v>
@@ -1485,7 +1485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>22.5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22.5</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>24.5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24.5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>35</v>
@@ -1623,7 +1623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1646,7 +1646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>31</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>31.75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>31.75</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>32.25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -1692,7 +1692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>32.25</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>33.75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>33.75</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>34.25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>34.25</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
@@ -1761,7 +1761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>35</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>39</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>40</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>41</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>46</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>47</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>48</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>49</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>50</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>51</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>52</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>53</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>54</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>55</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>56</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>58</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>60</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>61</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>62</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>63</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>64</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>65</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D59" s="1">
         <v>5</v>
@@ -2359,7 +2359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>66</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>67</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>68</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>69</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>69</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>70</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>71</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>72</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>73</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>74</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>76</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>77</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>78</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>79</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>80</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>81</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>82</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>83</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>84</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>85</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>86</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>87</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>88</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>89</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>90</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>91</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>92</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>93</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>94</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>95</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>96</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>97</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>98</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>99</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>101</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>114</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>115</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>116</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>117</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>118</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>119</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>120</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>121</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>122</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>123</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>124</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>125.5</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>126</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>127</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>128.5</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>129</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>130</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>130.5</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>131</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>132</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>132.25</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>132.5</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>133</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>136</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>138</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>139.75</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>140.25</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>144.5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>145</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>149</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>150</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>151</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>152</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>153</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>154</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>155</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>156</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>157</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>158</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>159</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>160</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>161</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>162</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>163</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>164</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>165</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>166</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>167</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>171</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>173</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>174</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>175</v>
       </c>
@@ -4623,8 +4623,8 @@
       <c r="C158" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>127</v>
+      <c r="D158" s="1">
+        <v>4</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>126</v>
@@ -4633,10 +4633,10 @@
         <v>0</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>176</v>
       </c>
@@ -4656,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>177</v>
       </c>
@@ -4673,16 +4673,16 @@
         <v>83</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F160" s="1">
+        <v>3</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F160" s="1">
-        <v>3</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>178</v>
       </c>
@@ -4702,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>179</v>
       </c>
@@ -4719,16 +4719,16 @@
         <v>83</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F162" s="1">
+        <v>3</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F162" s="1">
-        <v>3</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>180</v>
       </c>
@@ -4748,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>181</v>
       </c>
@@ -4762,19 +4762,19 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>182</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F165" s="1">
         <v>2</v>
@@ -4797,7 +4797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>183</v>
       </c>
@@ -4811,16 +4811,16 @@
         <v>7</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F166" s="1">
+        <v>3</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F166" s="1">
-        <v>3</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>184</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F167" s="1">
         <v>2</v>
@@ -4843,7 +4843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>185</v>
       </c>
@@ -4857,16 +4857,16 @@
         <v>7</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F168" s="1">
         <v>2</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>186</v>
       </c>
@@ -4886,10 +4886,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>187</v>
       </c>
@@ -4900,10 +4900,10 @@
         <v>87</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="F170" s="1">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>188</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>190</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>191</v>
       </c>
@@ -4972,16 +4972,16 @@
         <v>4</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F173" s="1">
         <v>2</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>192</v>
       </c>
@@ -4995,16 +4995,16 @@
         <v>7</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F174" s="1">
-        <v>0</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>193</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>194</v>
       </c>
@@ -5041,16 +5041,16 @@
         <v>7</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F176" s="1">
         <v>3</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>195</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>196</v>
       </c>
@@ -5087,16 +5087,16 @@
         <v>4</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F178" s="1">
         <v>2</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>197</v>
       </c>
@@ -5110,16 +5110,16 @@
         <v>5</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>198</v>
       </c>
@@ -5133,16 +5133,16 @@
         <v>6</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F180" s="1">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>199</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>200</v>
       </c>
@@ -5179,16 +5179,16 @@
         <v>7</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F182" s="1">
-        <v>0</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>201</v>
       </c>
@@ -5202,16 +5202,16 @@
         <v>5</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F183" s="1">
-        <v>1</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>202</v>
       </c>
@@ -5225,16 +5225,16 @@
         <v>6</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F184" s="1">
-        <v>1</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>203</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>204</v>
       </c>
@@ -5271,16 +5271,16 @@
         <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F186" s="1">
-        <v>1</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>205</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>206</v>
       </c>
@@ -5317,16 +5317,16 @@
         <v>6</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F188" s="1">
-        <v>1</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>207</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>208</v>
       </c>
@@ -5363,16 +5363,16 @@
         <v>5</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F190" s="1">
-        <v>1</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>209</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>210</v>
       </c>
@@ -5409,16 +5409,16 @@
         <v>6</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F192" s="1">
-        <v>1</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>211</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>212</v>
       </c>
@@ -5455,16 +5455,16 @@
         <v>6</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F194" s="1">
-        <v>1</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>213</v>
       </c>
